--- a/biology/Médecine/Coactivation_musculaire/Coactivation_musculaire.xlsx
+++ b/biology/Médecine/Coactivation_musculaire/Coactivation_musculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coactivation musculaire est un phénomène décrivant l'activation simultanée de deux muscles agoniste/antagoniste lors d'un mouvement.
-La coactivation musculaire est utile pour limiter l'amplitude des mouvements et augmenter la précision. Lorsque ce phénomène est mal géré, par exemple lorsqu'un muscle agoniste est hypertrophié, il y a un risque de dommages ligamentaires[1].
-À l'inverse la coactivation musculaire peut être néfaste dans le cas de performances sportives (par ex. la course à pied), car elle diminue le rendement musculaire[2]. Ceci se produit notamment si le sportif n'arrive pas à gérer le stress de la compétition.
+La coactivation musculaire est utile pour limiter l'amplitude des mouvements et augmenter la précision. Lorsque ce phénomène est mal géré, par exemple lorsqu'un muscle agoniste est hypertrophié, il y a un risque de dommages ligamentaires.
+À l'inverse la coactivation musculaire peut être néfaste dans le cas de performances sportives (par ex. la course à pied), car elle diminue le rendement musculaire. Ceci se produit notamment si le sportif n'arrive pas à gérer le stress de la compétition.
 </t>
         </is>
       </c>
